--- a/tables/Free_etal_mariculture_species_database.xlsx
+++ b/tables/Free_etal_mariculture_species_database.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{54BEA9FD-B8F9-0E48-A729-4E324C68318E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C800BF-6E05-3D41-B01C-0FA660ED89DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10960" yWindow="3740" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="4560" yWindow="1880" windowWidth="32840" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Meta-data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AZ$145</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1670,7 +1673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2525,11 +2528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF128" sqref="AF128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2736,7 +2740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2894,7 +2898,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>38.08</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>39.76</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>40.28</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>36.369999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -3842,7 +3846,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -4316,7 +4320,7 @@
         <v>37.69</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>38.65</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -4632,7 +4636,7 @@
         <v>38.83</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>38.82</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -4948,7 +4952,7 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -5106,7 +5110,7 @@
         <v>37.880000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>39.11</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5422,7 +5426,7 @@
         <v>38.04</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5738,7 +5742,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -6212,7 +6216,7 @@
         <v>34.79</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>33.979999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>40.22</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>39.369999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -7318,7 +7322,7 @@
         <v>40.53</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -7476,7 +7480,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>35.68</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -7950,7 +7954,7 @@
         <v>38.630000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -8108,7 +8112,7 @@
         <v>39.21</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -8266,7 +8270,7 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>37.130000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>40.19</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>34.93</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -9056,7 +9060,7 @@
         <v>34.159999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -9214,7 +9218,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -9372,7 +9376,7 @@
         <v>39.090000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>38.380000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>39.97</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -10004,7 +10008,7 @@
         <v>39.31</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -10478,7 +10482,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -10636,7 +10640,7 @@
         <v>40.39</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -10794,7 +10798,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10952,7 +10956,7 @@
         <v>39.97</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -11110,7 +11114,7 @@
         <v>39.409999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -11268,7 +11272,7 @@
         <v>39.58</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -11426,7 +11430,7 @@
         <v>39.520000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -11742,7 +11746,7 @@
         <v>39.11</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -11900,7 +11904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>39.11</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -12216,7 +12220,7 @@
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -12374,7 +12378,7 @@
         <v>37.770000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -12532,7 +12536,7 @@
         <v>39.61</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -12690,7 +12694,7 @@
         <v>38.340000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -12848,7 +12852,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -13006,7 +13010,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -13164,7 +13168,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>39.549999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -13480,7 +13484,7 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -13638,7 +13642,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -13796,7 +13800,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -13954,7 +13958,7 @@
         <v>39.659999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -14112,7 +14116,7 @@
         <v>36.68</v>
       </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -14270,7 +14274,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -14428,7 +14432,7 @@
         <v>38.83</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -14586,7 +14590,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -14744,7 +14748,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -14902,7 +14906,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -15060,7 +15064,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -15218,7 +15222,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -15376,7 +15380,7 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -15534,7 +15538,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -15692,7 +15696,7 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>52</v>
       </c>
@@ -15850,7 +15854,7 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -16008,7 +16012,7 @@
         <v>40.06</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -16166,7 +16170,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -16324,7 +16328,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -16482,7 +16486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>37.94</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -16798,7 +16802,7 @@
         <v>39.21</v>
       </c>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -16956,7 +16960,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -17114,7 +17118,7 @@
         <v>38.83</v>
       </c>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -17272,7 +17276,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>52</v>
       </c>
@@ -17430,7 +17434,7 @@
         <v>35.07</v>
       </c>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>52</v>
       </c>
@@ -17588,7 +17592,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -17746,7 +17750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -17904,7 +17908,7 @@
         <v>39.21</v>
       </c>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -18062,7 +18066,7 @@
         <v>34.76</v>
       </c>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -18220,7 +18224,7 @@
         <v>39.93</v>
       </c>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -18378,7 +18382,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>52</v>
       </c>
@@ -18536,7 +18540,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -18694,7 +18698,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -18852,7 +18856,7 @@
         <v>38.83</v>
       </c>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>52</v>
       </c>
@@ -19010,7 +19014,7 @@
         <v>38.65</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -19168,7 +19172,7 @@
         <v>39.49</v>
       </c>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -19326,7 +19330,7 @@
         <v>35.020000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -19484,7 +19488,7 @@
         <v>36.380000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -19642,7 +19646,7 @@
         <v>36.42</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -19800,7 +19804,7 @@
         <v>38.83</v>
       </c>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -19958,7 +19962,7 @@
         <v>37.35</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -20116,7 +20120,7 @@
         <v>38.83</v>
       </c>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -20274,7 +20278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>52</v>
       </c>
@@ -20432,7 +20436,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>52</v>
       </c>
@@ -20590,7 +20594,7 @@
         <v>35.42</v>
       </c>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>52</v>
       </c>
@@ -20748,7 +20752,7 @@
         <v>34.83</v>
       </c>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>52</v>
       </c>
@@ -20906,7 +20910,7 @@
         <v>34.96</v>
       </c>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>52</v>
       </c>
@@ -21064,7 +21068,7 @@
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -21222,7 +21226,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>52</v>
       </c>
@@ -21380,7 +21384,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -21538,7 +21542,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>52</v>
       </c>
@@ -21696,7 +21700,7 @@
         <v>37.68</v>
       </c>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>52</v>
       </c>
@@ -21854,7 +21858,7 @@
         <v>34.76</v>
       </c>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>52</v>
       </c>
@@ -22012,7 +22016,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>429</v>
       </c>
@@ -22170,7 +22174,7 @@
         <v>36.04</v>
       </c>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>429</v>
       </c>
@@ -22328,7 +22332,7 @@
         <v>37.47</v>
       </c>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>429</v>
       </c>
@@ -22486,7 +22490,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>429</v>
       </c>
@@ -22802,7 +22806,7 @@
         <v>39.21</v>
       </c>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -22960,7 +22964,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -23118,7 +23122,7 @@
         <v>37.130000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>429</v>
       </c>
@@ -23276,7 +23280,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>429</v>
       </c>
@@ -23434,7 +23438,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>429</v>
       </c>
@@ -23592,7 +23596,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>429</v>
       </c>
@@ -23750,7 +23754,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>429</v>
       </c>
@@ -23908,7 +23912,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>429</v>
       </c>
@@ -24066,7 +24070,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>429</v>
       </c>
@@ -24224,7 +24228,7 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>429</v>
       </c>
@@ -24382,7 +24386,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>429</v>
       </c>
@@ -24540,7 +24544,7 @@
         <v>35.83</v>
       </c>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>429</v>
       </c>
@@ -24698,7 +24702,7 @@
         <v>38.51</v>
       </c>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>429</v>
       </c>
@@ -24856,7 +24860,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>429</v>
       </c>
@@ -25014,7 +25018,7 @@
         <v>36.28</v>
       </c>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>429</v>
       </c>
@@ -25172,7 +25176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>429</v>
       </c>
@@ -25330,7 +25334,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>429</v>
       </c>
@@ -25489,12 +25493,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AZ145" xr:uid="{66473028-22D7-0546-81AB-A718A0BB3DE0}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Blue mussel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
